--- a/logic/test/data/scaling_template_year_integer.xlsx
+++ b/logic/test/data/scaling_template_year_integer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\projects\E-MAP\05_Runs\validation\_input_IMJV_2022_test\02_scaling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RMABuild\emap\logic\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5D179-10B1-4EEC-BFF3-72D2A4A5A498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A41EB8-DB38-4CBF-8AC5-80E9CE86E492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4155" windowWidth="29040" windowHeight="15840" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6C3FE3BB-8C73-4241-95BD-F737EA4A19F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scaling" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NFR_code</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -130,10 +133,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +435,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,6 +482,9 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2">
         <v>98</v>
       </c>
